--- a/exports/lsmean_files/LU 5 Early-1 - LSMeans.xlsx
+++ b/exports/lsmean_files/LU 5 Early-1 - LSMeans.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">Genotype</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t xml:space="preserve">Seed weight (grams)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sq</t>
   </si>
   <si>
     <t xml:space="preserve">Test weight</t>
@@ -490,13 +493,14 @@
     <col min="6" max="6" width="19.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="13.71" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="19.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="11.71" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="13.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="5.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="11.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="13.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -506,6 +510,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -538,10 +543,13 @@
       <c r="J3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>29</v>
@@ -565,15 +573,18 @@
         <v>13</v>
       </c>
       <c r="I4" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J4" s="1" t="n">
         <v>55.5</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="K4" s="1" t="n">
         <v>2216.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>30</v>
@@ -597,15 +608,18 @@
         <v>12</v>
       </c>
       <c r="I5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="n">
         <v>57.6</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="K5" s="1" t="n">
         <v>2035.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>22.5</v>
@@ -629,15 +643,18 @@
         <v>14.9</v>
       </c>
       <c r="I6" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="1" t="n">
         <v>56.3</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="K6" s="1" t="n">
         <v>2103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>30</v>
@@ -661,15 +678,18 @@
         <v>15.7</v>
       </c>
       <c r="I7" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J7" s="1" t="n">
         <v>57.6</v>
       </c>
-      <c r="J7" s="1" t="n">
+      <c r="K7" s="1" t="n">
         <v>1968.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>42</v>
@@ -693,15 +713,18 @@
         <v>14.3</v>
       </c>
       <c r="I8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="J8" s="1" t="n">
+      <c r="K8" s="1" t="n">
         <v>1788.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>33</v>
@@ -725,15 +748,18 @@
         <v>14.1</v>
       </c>
       <c r="I9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J9" s="1" t="n">
         <v>55.1</v>
       </c>
-      <c r="J9" s="1" t="n">
+      <c r="K9" s="1" t="n">
         <v>1965.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>30</v>
@@ -757,15 +783,18 @@
         <v>14.8</v>
       </c>
       <c r="I10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J10" s="1" t="n">
         <v>55.6</v>
       </c>
-      <c r="J10" s="1" t="n">
+      <c r="K10" s="1" t="n">
         <v>2018.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>33.5</v>
@@ -789,15 +818,18 @@
         <v>13.7</v>
       </c>
       <c r="I11" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J11" s="1" t="n">
         <v>56.4</v>
       </c>
-      <c r="J11" s="1" t="n">
+      <c r="K11" s="1" t="n">
         <v>2116.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>20.5</v>
@@ -821,15 +853,18 @@
         <v>16.7</v>
       </c>
       <c r="I12" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J12" s="1" t="n">
         <v>54.8</v>
       </c>
-      <c r="J12" s="1" t="n">
+      <c r="K12" s="1" t="n">
         <v>1804</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>39.5</v>
@@ -852,14 +887,17 @@
       <c r="H13" s="1" t="n">
         <v>13.6</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1" t="n">
+      <c r="I13" s="1" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="n">
         <v>1719.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>28</v>
@@ -883,15 +921,18 @@
         <v>12.7</v>
       </c>
       <c r="I14" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J14" s="1" t="n">
         <v>56.7</v>
       </c>
-      <c r="J14" s="1" t="n">
+      <c r="K14" s="1" t="n">
         <v>2151.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>30</v>
@@ -915,15 +956,18 @@
         <v>12.6</v>
       </c>
       <c r="I15" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J15" s="1" t="n">
         <v>55.6</v>
       </c>
-      <c r="J15" s="1" t="n">
+      <c r="K15" s="1" t="n">
         <v>1956.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>25.5</v>
@@ -947,15 +991,18 @@
         <v>13.7</v>
       </c>
       <c r="I16" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J16" s="1" t="n">
         <v>56.9</v>
       </c>
-      <c r="J16" s="1" t="n">
+      <c r="K16" s="1" t="n">
         <v>2130.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>30</v>
@@ -979,15 +1026,18 @@
         <v>13.9</v>
       </c>
       <c r="I17" s="1" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J17" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="J17" s="1" t="n">
+      <c r="K17" s="1" t="n">
         <v>1939.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>27.5</v>
@@ -1011,15 +1061,18 @@
         <v>14.7</v>
       </c>
       <c r="I18" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J18" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="J18" s="1" t="n">
+      <c r="K18" s="1" t="n">
         <v>1941.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>27.5</v>
@@ -1043,15 +1096,18 @@
         <v>13.5</v>
       </c>
       <c r="I19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="J19" s="1" t="n">
+      <c r="K19" s="1" t="n">
         <v>2098.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>30.5</v>
@@ -1075,15 +1131,18 @@
         <v>12.2</v>
       </c>
       <c r="I20" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J20" s="1" t="n">
         <v>56.4</v>
       </c>
-      <c r="J20" s="1" t="n">
+      <c r="K20" s="1" t="n">
         <v>1942.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>33</v>
@@ -1107,15 +1166,18 @@
         <v>13</v>
       </c>
       <c r="I21" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J21" s="1" t="n">
         <v>55.8</v>
       </c>
-      <c r="J21" s="1" t="n">
+      <c r="K21" s="1" t="n">
         <v>1943.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>27</v>
@@ -1139,15 +1201,18 @@
         <v>12.2</v>
       </c>
       <c r="I22" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J22" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="J22" s="1" t="n">
+      <c r="K22" s="1" t="n">
         <v>2007.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>32</v>
@@ -1171,15 +1236,18 @@
         <v>11.9</v>
       </c>
       <c r="I23" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J23" s="1" t="n">
         <v>56.4</v>
       </c>
-      <c r="J23" s="1" t="n">
+      <c r="K23" s="1" t="n">
         <v>1918.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>32.5</v>
@@ -1203,15 +1271,18 @@
         <v>14.9</v>
       </c>
       <c r="I24" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J24" s="1" t="n">
         <v>56.4</v>
       </c>
-      <c r="J24" s="1" t="n">
+      <c r="K24" s="1" t="n">
         <v>2340</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>31.5</v>
@@ -1235,15 +1306,18 @@
         <v>14.3</v>
       </c>
       <c r="I25" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J25" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="J25" s="1" t="n">
+      <c r="K25" s="1" t="n">
         <v>2168</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>33.5</v>
@@ -1267,15 +1341,18 @@
         <v>14.9</v>
       </c>
       <c r="I26" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J26" s="1" t="n">
         <v>55.7</v>
       </c>
-      <c r="J26" s="1" t="n">
+      <c r="K26" s="1" t="n">
         <v>2112.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>31.5</v>
@@ -1299,15 +1376,18 @@
         <v>11.3</v>
       </c>
       <c r="I27" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J27" s="1" t="n">
         <v>56.5</v>
       </c>
-      <c r="J27" s="1" t="n">
+      <c r="K27" s="1" t="n">
         <v>2206.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>35</v>
@@ -1331,15 +1411,18 @@
         <v>14.4</v>
       </c>
       <c r="I28" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J28" s="1" t="n">
         <v>55.9</v>
       </c>
-      <c r="J28" s="1" t="n">
+      <c r="K28" s="1" t="n">
         <v>1972.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
